--- a/UT3/Ejercicios/Resueltos/UT3_TA1.xlsx
+++ b/UT3/Ejercicios/Resueltos/UT3_TA1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoucuedu-my.sharepoint.com/personal/juan_perezc_correo_ucu_edu_uy/Documents/Inteligencia Artificial 1/UT3/Ejercicios/Resueltos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="8_{74EF7588-856F-4819-AEE0-417BCC131728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02CCA50D-92FD-418C-B27F-68F26E9EB6EF}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="8_{74EF7588-856F-4819-AEE0-417BCC131728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C00E8DC6-EF73-46E8-B446-66D5D9194112}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{554A70D9-2020-4A0E-89A0-B9B1543AD2CB}"/>
   </bookViews>
@@ -3434,7 +3434,7 @@
   <dimension ref="A2:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
